--- a/keyword-driven/testcases.xlsx
+++ b/keyword-driven/testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDAC\cdac-selenium-automation-testing\keyword-driven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39653959-F4BF-41A7-B27D-CA691B03275C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB0A439-F022-4411-B05A-BBF6D118ABE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>TCID</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>css</t>
+  </si>
+  <si>
+    <t>//span[text()='Accounts']</t>
+  </si>
+  <si>
+    <t>xpath</t>
   </si>
 </sst>
 </file>
@@ -404,16 +410,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -505,6 +511,20 @@
       </c>
       <c r="D6" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
